--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22119845019596843, 0.16497097833142768, 0.15080475712961955, 0.12202387130058637, 0.3723644190998144, 0.15890356125730234, 0.16373383831362237, 0.1275904329900922, 0.10564284908993798, 0.025734576114490437, 0.06292062386278043, 0.06517541820195633, 0.09038811306262425, 0.12866920415251715, 0.04581300154645229, 0.05155633657867453, 0.05225625328876189, 0.04578381346466241, 0.08153853734744927]</t>
+    <t>[0.9999999999999998, 0.203938050835155, 0.14038516634682768, 0.1106271597198941, 0.11919130928281732, 0.3652757667381568, 0.13534100875315108, 0.13130863884504743, 0.08710727075881138, 0.08630647578632664, 0.008921163593526227, 0.024739708966519464, 0.0233182526464828, 0.08361185834748502, 0.09106036177391073, 0.012178098189479762, 0.04188091879822754, 0.006598800571202339, 0.054506754862295316, 0.053717727415923185]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.25670036475624286, 0.20061771024202968, 0.1763131710456594, 0.1432118423813015, 0.28928909397178865, 0.14904541542512667, 0.1201673806150889, 0.10130692676865051, 0.11650153694056052, 0.045283374824621955, 0.06601077582992537, 0.042530789710169506, 0.06400302716491664, 0.09164318948053046, 0.03729027077774172, 0.050158944829187084, 0.03862347048177345, 0.033254331856330165, 0.04756200414655771]</t>
+    <t>[1.0, 0.23470523125727913, 0.18043162846783606, 0.13064911174831265, 0.1537980327107822, 0.2747986897706073, 0.10781826043880667, 0.10913547544620399, 0.0738815341274262, 0.0990760412509017, 0.026031972986113202, 0.03437277013119131, 0.01955173719188702, 0.054342646834331904, 0.06869620746520537, 0.016322515897666468, 0.045699809381399524, 0.011316028327488913, 0.04927894790543823, 0.026943033982928816]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.003776397430326913, -0.0038506268908314475, -0.029931271341614954, -0.05216805559011897, 0.33590278377431443, 0.006456781155535773, 0.04057323911177375, -0.0034665417867512757, -0.020930902647498237, -0.05068775802995781, -0.048797830398633044, -0.0110381460612157, 0.018591745787028897, 0.05082791755580215, 0.002070425527879282, -0.011667002886938272, -0.030749915619392536, -0.006201038742565208, 0.02530631160773021]</t>
+    <t>[1.0, 0.00138922602860478, -0.010978747279480927, -0.032401262472769345, -0.046392324809179236, 0.33919987925995787, 0.010851562939929624, 0.029608335052882368, -0.013131847850927799, -0.022627153426887748, -0.058741691954163996, -0.046364007036134997, -0.018437022134476545, 0.02263470621597901, 0.04356898547795632, -0.016637546046719586, 0.005802636495733714, -0.04105934097087084, 0.021714737130916824, 0.01530343816820269]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.0029429573660402493, -0.0065372242278268836, -0.03315628797347469, -0.052006541208077364, 0.3352527663776792, 0.00861113387387093, 0.043140721912395485, -0.0031371387485181726, -0.0199646907429981, -0.05122818922043748, -0.04780391242730359, -0.009959195787159132, 0.017574760158549325, 0.050720350208469, 0.0007950648799055855, -0.01224595525602734, -0.03182553065802484, -0.007064241286314997, 0.025457744342421238]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03149255790457128, -0.0026330204502176074, -0.0007057522728670013, -0.03534504348194452, 0.24679879315407569, 0.002848195996758502, 0.03394824653373111, -0.00612784893800172, 0.0054189544663430095, -0.04965787879358057, -0.03930729007108875, -0.031182947527808442, 0.010258572554141131, 0.0555640381615112, -0.015339827641469649, -0.011805099828895552, -0.002983177433960842, -0.0026048921480626304, 0.021868926156090446]</t>
+    <t>[1.0, 0.0023056595849726036, -0.014430689943621384, -0.0358055588059253, -0.04517725009095377, 0.33813610618770995, 0.012313524922644306, 0.031197642051828404, -0.013159853039356545, -0.021417828132655782, -0.058997388905545206, -0.04554416692476793, -0.01771531533576334, 0.022008683470226144, 0.045657916989898795, -0.01798623415611631, 0.0063856828158397215, -0.04127922403191442, 0.021287687376868727, 0.015688677609790338]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.03574753065209955, -0.007970617824398377, -0.007651802674355969, -0.024210834973450116, 0.256996855719331, 0.008379222938175673, 0.027502182818854026, -0.011896147276176352, 0.0074035776977858184, -0.048786900393601694, -0.040960863519489236, -0.039083975303286764, 0.02391688054247091, 0.04999596458174584, -0.029213394057002063, 0.0043563103872698815, -0.02794478656204016, 0.023629307708343508, 0.016003299296851712]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6291419451161907</v>
+        <v>-0.1196539058413437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8336228321218863</v>
+        <v>0.834450129110025</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2679.221736904591</v>
+        <v>2257.292800218992</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9097560975609756</v>
+        <v>0.9847826086956522</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-16.95772502174763</v>
+        <v>-17.43605063666466</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7419219118194756</v>
+        <v>0.7214705347193457</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1880.479076701475</v>
+        <v>1544.408806512228</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>16.09120455330741</v>
+        <v>13.62227738077903</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7575022577691661</v>
+        <v>0.7704497792522496</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1995.327320139124</v>
+        <v>1725.850087644882</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.4271512959024379</v>
+        <v>0.2107369527606112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>129.1297637706128</v>
+        <v>136.0711203183615</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1015001136922193</v>
+        <v>0.09616636969425546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8544702078291411</v>
+        <v>0.8487813673533474</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.097871747516779</v>
+        <v>0.924108750216508</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>127.378381157966</v>
+        <v>132.2180241842929</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1255879616819686</v>
+        <v>0.1222394146688099</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8552317805600218</v>
+        <v>0.8509908505480588</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.04735204262921223</v>
+        <v>-0.05170053783843203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.525129102881922</v>
+        <v>0.54049807815235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>150.9070011067791</v>
+        <v>163.0821755253245</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.139601241445151</v>
+        <v>0.1337560541901572</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8284034503296247</v>
+        <v>0.8191686387534715</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.05038983331393765</v>
+        <v>-0.05199194421438309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8131076963132683</v>
+        <v>0.8159549426249337</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.203938050835155, 0.14038516634682768, 0.1106271597198941, 0.11919130928281732, 0.3652757667381568, 0.13534100875315108, 0.13130863884504743, 0.08710727075881138, 0.08630647578632664, 0.008921163593526227, 0.024739708966519464, 0.0233182526464828, 0.08361185834748502, 0.09106036177391073, 0.012178098189479762, 0.04188091879822754, 0.006598800571202339, 0.054506754862295316, 0.053717727415923185]</t>
+    <t>[1.0, 0.08678975284060744, -0.012840413166194881, -0.07086202935972366, -0.06347007268501068, 0.08296661964641912, -0.0005683124618095891, 0.0545886310286447, 0.03822843924441717, -0.002455064398582463, -0.03561727930752916, -0.01962329612276003, 0.0015551560319931037, 0.06893194384351661, 0.048917368702744074, -0.02678988668141005, -0.02583281521432406, -0.060916076908125165, -0.0368111626394735, -0.02742827854580032]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.23470523125727913, 0.18043162846783606, 0.13064911174831265, 0.1537980327107822, 0.2747986897706073, 0.10781826043880667, 0.10913547544620399, 0.0738815341274262, 0.0990760412509017, 0.026031972986113202, 0.03437277013119131, 0.01955173719188702, 0.054342646834331904, 0.06869620746520537, 0.016322515897666468, 0.045699809381399524, 0.011316028327488913, 0.04927894790543823, 0.026943033982928816]</t>
+    <t>[1.0, 0.1293755161391712, 0.02645190378559267, -0.011840806256087157, 0.0387866987920049, 0.04207185327433184, 0.0020672235467262727, 0.03799479214923581, 0.008243529135127416, 0.021038990771246702, 0.007484919837517472, -0.015617544388783095, 0.01586141881538815, 0.007963271297386103, 0.0313863721735704, -0.00960337238172656, 0.017302251053871415, -0.028481267567980553, -0.015363432219725354, 0.016200882414218024]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.00138922602860478, -0.010978747279480927, -0.032401262472769345, -0.046392324809179236, 0.33919987925995787, 0.010851562939929624, 0.029608335052882368, -0.013131847850927799, -0.022627153426887748, -0.058741691954163996, -0.046364007036134997, -0.018437022134476545, 0.02263470621597901, 0.04356898547795632, -0.016637546046719586, 0.005802636495733714, -0.04105934097087084, 0.021714737130916824, 0.01530343816820269]</t>
+    <t>[1.0, 0.011181391481007911, -0.02352879836637044, -0.08179855948869703, -0.08789542861518558, 0.14071694453960007, 0.021251354655626352, 0.06210508617688904, 0.03462536381979392, -0.023379877313978954, -0.04560155785199741, -0.011497979539804314, 0.00522156820951697, 0.06481729508239266, 0.03894650335553485, -0.0174845378625168, -0.022159819862650365, -0.05175154368543001, -0.038314481793475685, -0.017078761013970555]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.0023056595849726036, -0.014430689943621384, -0.0358055588059253, -0.04517725009095377, 0.33813610618770995, 0.012313524922644306, 0.031197642051828404, -0.013159853039356545, -0.021417828132655782, -0.058997388905545206, -0.04554416692476793, -0.01771531533576334, 0.022008683470226144, 0.045657916989898795, -0.01798623415611631, 0.0063856828158397215, -0.04127922403191442, 0.021287687376868727, 0.015688677609790338]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03574753065209955, -0.007970617824398377, -0.007651802674355969, -0.024210834973450116, 0.256996855719331, 0.008379222938175673, 0.027502182818854026, -0.011896147276176352, 0.0074035776977858184, -0.048786900393601694, -0.040960863519489236, -0.039083975303286764, 0.02391688054247091, 0.04999596458174584, -0.029213394057002063, 0.0043563103872698815, -0.02794478656204016, 0.023629307708343508, 0.016003299296851712]</t>
+    <t>[0.9999999999999999, 0.011707460101076797, -0.021543155402464077, -0.08124715110605364, -0.08858183052985101, 0.14206606194534827, 0.02432623513627062, 0.05995236962186577, 0.035476217832254534, -0.023589673144808775, -0.04675953136935498, -0.012973206907263923, 0.005195078938895303, 0.0641415500304011, 0.039131509262643714, -0.017944844370046793, -0.020822242105189473, -0.051676254374580954, -0.03836111705883747, -0.017698837057731672]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.002656763999799318, -0.022497676813174286, -0.07505307542290127, -0.07593642639152301, 0.09108064225172934, -0.003867628583389821, 0.05164712760270787, 0.03217670840622298, -0.007201290129249432, -0.037399915345544765, -0.020838474830338093, -0.005963322968838337, 0.06918348602290686, 0.051656724981900645, -0.026301260207270156, -0.014540574992769388, -0.06104294309570778, -0.03630222563376779, -0.024131294748313638]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.1196539058413437</v>
+        <v>-0.001117466870434384</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.834450129110025</v>
+        <v>0.8120860912038282</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2257.292800218992</v>
+        <v>0.102367977347484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-17.43605063666466</v>
+        <v>-0.1606068165559258</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7214705347193457</v>
+        <v>0.6449197196293537</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1544.408806512228</v>
+        <v>0.05683039258314826</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>13.62227738077903</v>
+        <v>0.1533935684166628</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7704497792522496</v>
+        <v>0.6420157588091135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>1725.850087644882</v>
+        <v>0.06860474090610616</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.2107369527606112</v>
+        <v>0.002515095599055716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>136.0711203183615</v>
+        <v>0.1018809108678828</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09616636969425546</v>
+        <v>0.09340073753386273</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8487813673533474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.924108750216508</v>
+        <v>0.003223091898555463</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>132.2180241842929</v>
+        <v>0.1021758761861158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1222394146688099</v>
+        <v>0.1259422174992773</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8509908505480588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.05170053783843203</v>
+        <v>-0.07068099061684387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.54049807815235</v>
+        <v>-0.0004020974283226129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>163.0821755253245</v>
+        <v>0.09248251131941676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1337560541901572</v>
+        <v>0.1259619156021742</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8191686387534715</v>
+        <v>4.475887380093997E-15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.05199194421438309</v>
+        <v>-0.06526756145371936</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8159549426249337</v>
+        <v>0.8102371891736481</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.07195916880054487, -0.009788552087812107, -0.06549482805475496, -0.07630977000663285, 0.10418356636542288, 0.010576323085598477, 0.06461753915987084, 0.053511959149233214, 0.008979209320010041, -0.023772844722941416, -0.015758176759250654, -0.01206511442636623, 0.04790072597361659, 0.03860482417482746, -0.014417500391660325, -0.02588355531447459, -0.052923740135472234, -0.03726359217760387, -0.012773611854367442]</t>
+    <t>[1.0, 0.22119845019596843, 0.16497097833142768, 0.15080475712961955, 0.12202387130058637, 0.3723644190998144, 0.15890356125730234, 0.16373383831362237, 0.1275904329900922, 0.10564284908993798, 0.025734576114490437, 0.06292062386278043, 0.06517541820195633, 0.09038811306262425, 0.12866920415251715, 0.04581300154645229, 0.05155633657867453, 0.05225625328876189, 0.04578381346466241, 0.08153853734744927]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.12225859287670492, 0.02133510446545175, -0.006027449214202022, 0.025516839191647822, 0.049812924423327715, 0.017993804164182097, 0.05319301581455177, 0.008847974382400838, 0.020000507203139322, 0.01716035298939891, -0.004718085760912555, 0.001161875271061955, -0.0030236334608228703, 0.012298069859465556, -0.007585575909770776, 0.006180998458918123, -0.030897042149466553, -0.016811251989562674, 0.009053863331750048]</t>
+    <t>[1.0, 0.25670036475624286, 0.20061771024202968, 0.1763131710456594, 0.1432118423813015, 0.28928909397178865, 0.14904541542512667, 0.1201673806150889, 0.10130692676865051, 0.11650153694056052, 0.045283374824621955, 0.06601077582992537, 0.042530789710169506, 0.06400302716491664, 0.09164318948053046, 0.03729027077774172, 0.050158944829187084, 0.03862347048177345, 0.033254331856330165, 0.04756200414655771]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.017036893166693504, -0.011705553368311682, -0.07755278879693038, -0.09344509779716058, 0.1653160241721066, 0.02602331747946244, 0.07424957006837878, 0.04331911197771456, -0.021134690451693545, -0.030645114105695953, -0.015672622907714772, -0.0016597749621200671, 0.05647621066293404, 0.030740949409239524, -0.0034419314052889526, -0.0201840975655215, -0.06660087400473867, -0.03574754856991224, -0.0016343231175546587]</t>
+    <t>[1.0, 0.003776397430326913, -0.0038506268908314475, -0.029931271341614954, -0.05216805559011897, 0.33590278377431443, 0.006456781155535773, 0.04057323911177375, -0.0034665417867512757, -0.020930902647498237, -0.05068775802995781, -0.048797830398633044, -0.0110381460612157, 0.018591745787028897, 0.05082791755580215, 0.002070425527879282, -0.011667002886938272, -0.030749915619392536, -0.006201038742565208, 0.02530631160773021]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.021110433359294554, -0.012686646865539846, -0.07771770460092448, -0.09261237222809224, 0.16678822717460845, 0.0309414186424994, 0.07140634276420574, 0.04518984752063408, -0.021603773994356645, -0.03365167134033685, -0.017538132313783976, -0.00231021939525596, 0.055521665821864796, 0.03217672661308332, -0.003139570608751668, -0.019231900159640197, -0.06816459079232214, -0.03693219308681901, -0.002861813104714923]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.008336219797106088, -0.017563469176911397, -0.0682276690741859, -0.08557282296884566, 0.11348126454368364, 0.007442235847492962, 0.05833632868110122, 0.0483964560855341, 0.004268223542206241, -0.02622677757743377, -0.016978226575882615, -0.018070862886026558, 0.048869511928983665, 0.04186378902047887, -0.011803487944617292, -0.01832502358567358, -0.054665230063997795, -0.03879091061827341, -0.012887996764128043]</t>
+    <t>[1.0, 0.0029429573660402493, -0.0065372242278268836, -0.03315628797347469, -0.052006541208077364, 0.3352527663776792, 0.00861113387387093, 0.043140721912395485, -0.0031371387485181726, -0.0199646907429981, -0.05122818922043748, -0.04780391242730359, -0.009959195787159132, 0.017574760158549325, 0.050720350208469, 0.0007950648799055855, -0.01224595525602734, -0.03182553065802484, -0.007064241286314997, 0.025457744342421238]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.03149255790457128, -0.0026330204502176074, -0.0007057522728670013, -0.03534504348194452, 0.24679879315407569, 0.002848195996758502, 0.03394824653373111, -0.00612784893800172, 0.0054189544663430095, -0.04965787879358057, -0.03930729007108875, -0.031182947527808442, 0.010258572554141131, 0.0555640381615112, -0.015339827641469649, -0.011805099828895552, -0.002983177433960842, -0.0026048921480626304, 0.021868926156090446]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003808662042486886</v>
+        <v>0.6291419451161907</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8091945645395557</v>
+        <v>0.8336228321218863</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1041237987046259</v>
+        <v>2679.221736904591</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1613554128887708</v>
+        <v>-16.95772502174763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.6360610745695391</v>
+        <v>0.7419219118194756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05777191574978682</v>
+        <v>1880.479076701475</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.162729847706481</v>
+        <v>16.09120455330741</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.629043116744282</v>
+        <v>0.7575022577691661</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07119382000348026</v>
+        <v>1995.327320139124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001047209954674599</v>
+        <v>0.4271512959024379</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1011953987158593</v>
+        <v>129.1297637706128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06768423189234836</v>
+        <v>0.1015001136922193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.05021168272653039</v>
+        <v>0.8544702078291411</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001595903120422392</v>
+        <v>1.097871747516779</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.09361472893541604</v>
+        <v>127.378381157966</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1175061719343192</v>
+        <v>0.1255879616819686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.1224859724191054</v>
+        <v>0.8552317805600218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.1143638939893213</v>
+        <v>-0.04735204262921223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002893219186526098</v>
+        <v>1.525129102881922</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.09423231307404205</v>
+        <v>150.9070011067791</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1135741462462271</v>
+        <v>0.139601241445151</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.02753546798388659</v>
+        <v>0.8284034503296247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.1007032246034218</v>
+        <v>-0.05038983331393765</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8088699458426473</v>
+        <v>0.8131076963132683</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.22119845019596843, 0.16497097833142768, 0.15080475712961955, 0.12202387130058637, 0.3723644190998144, 0.15890356125730234, 0.16373383831362237, 0.1275904329900922, 0.10564284908993798, 0.025734576114490437, 0.06292062386278043, 0.06517541820195633, 0.09038811306262425, 0.12866920415251715, 0.04581300154645229, 0.05155633657867453, 0.05225625328876189, 0.04578381346466241, 0.08153853734744927]</t>
+    <t>[1.0, 0.22119845019596862, 0.1649709783314278, 0.15080475712961977, 0.12202387130058644, 0.3723644190998142, 0.1589035612573023, 0.16373383831362232, 0.12759043299009215, 0.105642849089938, 0.02573457611449048, 0.0629206238627805, 0.06517541820195633, 0.09038811306262419, 0.1286692041525171, 0.04581300154645226, 0.051556336578674526, 0.05225625328876198, 0.04578381346466242, 0.08153853734744922]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.25670036475624286, 0.20061771024202968, 0.1763131710456594, 0.1432118423813015, 0.28928909397178865, 0.14904541542512667, 0.1201673806150889, 0.10130692676865051, 0.11650153694056052, 0.045283374824621955, 0.06601077582992537, 0.042530789710169506, 0.06400302716491664, 0.09164318948053046, 0.03729027077774172, 0.050158944829187084, 0.03862347048177345, 0.033254331856330165, 0.04756200414655771]</t>
+    <t>[1.0, 0.25670036475624264, 0.20061771024202957, 0.17631317104565916, 0.1432118423813014, 0.28928909397178865, 0.14904541542512664, 0.12016738061508893, 0.10130692676865057, 0.11650153694056053, 0.04528337482462187, 0.06601077582992536, 0.042530789710169534, 0.06400302716491667, 0.09164318948053042, 0.0372902707777417, 0.050158944829187056, 0.038623470481773385, 0.03325433185633016, 0.047562004146557715]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.003776397430326913, -0.0038506268908314475, -0.029931271341614954, -0.05216805559011897, 0.33590278377431443, 0.006456781155535773, 0.04057323911177375, -0.0034665417867512757, -0.020930902647498237, -0.05068775802995781, -0.048797830398633044, -0.0110381460612157, 0.018591745787028897, 0.05082791755580215, 0.002070425527879282, -0.011667002886938272, -0.030749915619392536, -0.006201038742565208, 0.02530631160773021]</t>
+    <t>[1.0, 0.003776397430326903, -0.003850626890831459, -0.02993127134161494, -0.052168055590118986, 0.33590278377431454, 0.006456781155535775, 0.040573239111773754, -0.0034665417867512788, -0.020930902647498244, -0.050687758029957834, -0.04879783039863303, -0.011038146061215696, 0.018591745787028904, 0.050827917555802155, 0.002070425527879295, -0.011667002886938272, -0.030749915619392536, -0.006201038742565209, 0.025306311607730197]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.0029429573660402493, -0.0065372242278268836, -0.03315628797347469, -0.052006541208077364, 0.3352527663776792, 0.00861113387387093, 0.043140721912395485, -0.0031371387485181726, -0.0199646907429981, -0.05122818922043748, -0.04780391242730359, -0.009959195787159132, 0.017574760158549325, 0.050720350208469, 0.0007950648799055855, -0.01224595525602734, -0.03182553065802484, -0.007064241286314997, 0.025457744342421238]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.03149255790457128, -0.0026330204502176074, -0.0007057522728670013, -0.03534504348194452, 0.24679879315407569, 0.002848195996758502, 0.03394824653373111, -0.00612784893800172, 0.0054189544663430095, -0.04965787879358057, -0.03930729007108875, -0.031182947527808442, 0.010258572554141131, 0.0555640381615112, -0.015339827641469649, -0.011805099828895552, -0.002983177433960842, -0.0026048921480626304, 0.021868926156090446]</t>
+    <t>[1.0, 0.002942957366040249, -0.0065372242278268836, -0.03315628797347469, -0.05200654120807735, 0.3352527663776792, 0.008611133873870932, 0.04314072191239548, -0.0031371387485181683, -0.019964690742998104, -0.05122818922043748, -0.0478039124273036, -0.00995919578715912, 0.017574760158549318, 0.05072035020846899, 0.0007950648799055837, -0.012245955256027341, -0.031825530658024855, -0.007064241286314977, 0.02545774434242124]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.031506668917823166, -0.0026232452464180047, -0.0007018328599667503, -0.03534136745522971, 0.24680288094353803, 0.0028469139563237246, 0.033942884328019944, -0.006133699804830094, 0.0054100137903479555, -0.04966477822784492, -0.03931761017686657, -0.031193596875655875, 0.010245580239086593, 0.05555083015466932, -0.015351246829929166, -0.011815693231163792, -0.002996004488281017, -0.002614370809158718, 0.021856949327045974]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6291419451161907</v>
+        <v>0.6291419451161869</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8336228321218863</v>
+        <v>0.8336228321218859</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9097560975609756</v>
+        <v>0.4763729246487867</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-16.95772502174763</v>
+        <v>-16.95772502174761</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7419219118194756</v>
+        <v>0.7419219118194759</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7575022577691661</v>
+        <v>0.7575022577691666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1.525129102881922</v>
+        <v>1.525078553674089</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>150.9070011067791</v>
+        <v>150.8283889761256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.139601241445151</v>
+        <v>0.1395694725615188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8284034503296247</v>
+        <v>0.8284634643541914</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.05038983331393765</v>
+        <v>-0.05038507563394165</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8131076963132683</v>
+        <v>0.8131128355780232</v>
       </c>
     </row>
   </sheetData>
